--- a/client/assets/uploads/ProjectFlow.xlsx
+++ b/client/assets/uploads/ProjectFlow.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Solve issue with authentication</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>3. e.</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -547,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -561,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -578,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -606,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -620,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
